--- a/Pap_Data.xlsx
+++ b/Pap_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\Data Sci\DATA 211\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6F97C7-1AF8-47FA-A53F-8874A04976B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28DE226-A362-474E-9C06-87A23F2ACA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5E4119A-837E-4600-8F2E-1E685D9E71B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Sleep Time Base 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -433,11 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B055827-2BF1-4722-B07C-7CB7E7B250A1}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +449,7 @@
     <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,7 +513,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>SUM(A2+1)</f>
         <v>2</v>
@@ -549,7 +546,7 @@
         <v>44565</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">SUM(A3+1)</f>
         <v>3</v>
@@ -582,7 +579,7 @@
         <v>44566</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -615,7 +612,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -648,7 +645,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -681,7 +678,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -714,7 +711,7 @@
         <v>44570</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -747,7 +744,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -779,8 +776,9 @@
       <c r="J10" s="2">
         <v>44572</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -813,7 +811,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -845,8 +843,9 @@
       <c r="J12" s="2">
         <v>44574</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -879,7 +878,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -912,7 +911,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -945,7 +944,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1247,29 +1246,29 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" t="s">
-        <v>10</v>
+      <c r="B25">
+        <v>4.8</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>9.6999999999999993</v>
       </c>
       <c r="J25" s="2">
         <v>44587</v>
@@ -1359,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="F28" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="G28" s="3">
         <v>6.25</v>
@@ -1379,29 +1378,29 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" t="s">
-        <v>10</v>
+      <c r="B29">
+        <v>4.8</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>9.1999999999999993</v>
       </c>
       <c r="J29" s="2">
         <v>44591</v>
